--- a/Project supporting Artifacts/Evaluation/GOMS-Polish_test_3.xlsx
+++ b/Project supporting Artifacts/Evaluation/GOMS-Polish_test_3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nikodem/Documents/GitHub/TUD-Group-Project/Project supporting Artifacts/Evaluation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10BFF942-0CB0-FD4F-B802-74A689AA3A63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08E7E621-5128-7943-AB19-386C3D183191}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14280" windowHeight="18000" firstSheet="15" activeTab="17" xr2:uid="{4FF5F388-14DE-5040-B071-95F76F7E24BA}"/>
+    <workbookView xWindow="5740" yWindow="500" windowWidth="14280" windowHeight="16080" xr2:uid="{4FF5F388-14DE-5040-B071-95F76F7E24BA}"/>
   </bookViews>
   <sheets>
     <sheet name="Comparison" sheetId="1" r:id="rId1"/>
@@ -18,19 +18,20 @@
     <sheet name="Missing Values" sheetId="3" r:id="rId3"/>
     <sheet name="Outlier Removal" sheetId="4" r:id="rId4"/>
     <sheet name="Label encoding" sheetId="5" r:id="rId5"/>
-    <sheet name="binning" sheetId="6" r:id="rId6"/>
-    <sheet name="Change Column Type" sheetId="7" r:id="rId7"/>
-    <sheet name="Rename Column" sheetId="8" r:id="rId8"/>
-    <sheet name="Special Character Removal" sheetId="9" r:id="rId9"/>
-    <sheet name="Trim Whitespace" sheetId="10" r:id="rId10"/>
-    <sheet name="Replace Substrings" sheetId="11" r:id="rId11"/>
-    <sheet name="Text Case" sheetId="12" r:id="rId12"/>
-    <sheet name="Remove Stopwords" sheetId="13" r:id="rId13"/>
-    <sheet name="Collapse Rare Categories" sheetId="14" r:id="rId14"/>
-    <sheet name="Tokenization" sheetId="15" r:id="rId15"/>
-    <sheet name="Regex (Regular Expressions)" sheetId="16" r:id="rId16"/>
-    <sheet name="Datetime Components" sheetId="18" r:id="rId17"/>
-    <sheet name="Remove Duplicates" sheetId="19" r:id="rId18"/>
+    <sheet name="Sheet1" sheetId="20" r:id="rId6"/>
+    <sheet name="binning" sheetId="6" r:id="rId7"/>
+    <sheet name="Change Column Type" sheetId="7" r:id="rId8"/>
+    <sheet name="Rename Column" sheetId="8" r:id="rId9"/>
+    <sheet name="Special Character Removal" sheetId="9" r:id="rId10"/>
+    <sheet name="Trim Whitespace" sheetId="10" r:id="rId11"/>
+    <sheet name="Replace Substrings" sheetId="11" r:id="rId12"/>
+    <sheet name="Text Case" sheetId="12" r:id="rId13"/>
+    <sheet name="Remove Stopwords" sheetId="13" r:id="rId14"/>
+    <sheet name="Collapse Rare Categories" sheetId="14" r:id="rId15"/>
+    <sheet name="Tokenization" sheetId="15" r:id="rId16"/>
+    <sheet name="Regex (Regular Expressions)" sheetId="16" r:id="rId17"/>
+    <sheet name="Datetime Components" sheetId="18" r:id="rId18"/>
+    <sheet name="Remove Duplicates" sheetId="19" r:id="rId19"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1208,8 +1209,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76CCED56-B1F8-4349-9CA5-CFF48A33C9D8}">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D20" sqref="A1:D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1374,9 +1375,9 @@
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="2" t="str">
-        <f>'Trim Whitespace'!C6</f>
-        <v>1 min</v>
+      <c r="B10" s="2">
+        <f>'Trim Whitespace'!C7</f>
+        <v>7</v>
       </c>
       <c r="C10" s="2">
         <f>'Trim Whitespace'!G7</f>
@@ -1529,7 +1530,7 @@
       </c>
       <c r="B19" s="1">
         <f>SUM(B2:B18)</f>
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="C19" s="1">
         <f>SUM(C2:C18)</f>
@@ -1546,7 +1547,7 @@
       </c>
       <c r="B20" s="1">
         <f>B19/60</f>
-        <v>2.1333333333333333</v>
+        <v>2.25</v>
       </c>
       <c r="C20" s="1">
         <f>C19/60</f>
@@ -1569,6 +1570,208 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E8945ED-BAF2-C34A-80C4-D30B68C8DA2C}">
+  <dimension ref="B1:L7"/>
+  <sheetViews>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.83203125" style="14" customWidth="1"/>
+    <col min="6" max="6" width="24.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.5" style="14" customWidth="1"/>
+    <col min="10" max="10" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15" style="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:12" s="9" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="C1" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="D1" s="10"/>
+      <c r="G1" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="H1" s="10"/>
+      <c r="K1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" s="10"/>
+    </row>
+    <row r="2" spans="2:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="B2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" ht="54" x14ac:dyDescent="0.2">
+      <c r="B3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" ht="72" x14ac:dyDescent="0.2">
+      <c r="B4" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="L4" s="8" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" ht="72" x14ac:dyDescent="0.2">
+      <c r="B5" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="L5" s="8" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" ht="72" x14ac:dyDescent="0.2">
+      <c r="B6" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="L6" s="8" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="B7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="3">
+        <v>8</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" s="3">
+        <v>13</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K7" s="3">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6062ED13-C528-F146-AE70-5ACC98E5FD07}">
   <dimension ref="B1:L7"/>
   <sheetViews>
@@ -1770,7 +1973,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C20D2886-70F8-A640-969D-1FFF78906280}">
   <dimension ref="B1:L7"/>
   <sheetViews>
@@ -1973,7 +2176,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B17B441-DAD5-B14A-B665-039BC5DFC85A}">
   <dimension ref="B1:L7"/>
   <sheetViews>
@@ -2175,7 +2378,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18058F80-552A-2B46-9A61-17D28D671D7E}">
   <dimension ref="B1:L7"/>
   <sheetViews>
@@ -2376,7 +2579,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2990E6A3-2F89-4543-9085-4F79AE6CF6C1}">
   <dimension ref="B1:L11"/>
   <sheetViews>
@@ -2612,7 +2815,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B15306A-7E9E-EF49-BEA7-BC4B3796CCEF}">
   <dimension ref="B1:L7"/>
   <sheetViews>
@@ -2814,7 +3017,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEDFEC69-75A2-0441-AC67-AB453D872A52}">
   <dimension ref="B1:L7"/>
   <sheetViews>
@@ -3016,7 +3219,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6779DF32-F3C5-8D4E-BC6D-C6BF3912FD45}">
   <dimension ref="B1:L12"/>
   <sheetViews>
@@ -3248,11 +3451,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6836C7B9-0B85-3A4B-822E-23EEAE7381E3}">
   <dimension ref="B1:L7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K7" sqref="J7:K7"/>
     </sheetView>
   </sheetViews>
@@ -4296,6 +4499,18 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA9B4EA9-9C4B-0848-8C3F-F1F8FE15170B}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EC162D1-E2CB-9148-882F-73C6122D3717}">
   <dimension ref="B1:L7"/>
   <sheetViews>
@@ -4499,7 +4714,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87741834-764D-8442-88E6-1252B0C99BC2}">
   <dimension ref="B1:L7"/>
   <sheetViews>
@@ -4700,7 +4915,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AC10668-04B2-D949-B9DB-65DF0C8FBDE5}">
   <dimension ref="B1:L7"/>
   <sheetViews>
@@ -4883,206 +5098,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E8945ED-BAF2-C34A-80C4-D30B68C8DA2C}">
-  <dimension ref="B1:L7"/>
-  <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="18.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.83203125" style="14" customWidth="1"/>
-    <col min="6" max="6" width="24.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.5" style="14" customWidth="1"/>
-    <col min="10" max="10" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15" style="14" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:12" s="9" customFormat="1" ht="19" x14ac:dyDescent="0.25">
-      <c r="C1" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="D1" s="10"/>
-      <c r="G1" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="H1" s="10"/>
-      <c r="K1" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="L1" s="10"/>
-    </row>
-    <row r="2" spans="2:12" ht="18" x14ac:dyDescent="0.2">
-      <c r="B2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="L2" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="2:12" ht="54" x14ac:dyDescent="0.2">
-      <c r="B3" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="L3" s="8" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="4" spans="2:12" ht="72" x14ac:dyDescent="0.2">
-      <c r="B4" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="L4" s="8" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="5" spans="2:12" ht="72" x14ac:dyDescent="0.2">
-      <c r="B5" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="L5" s="8" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="6" spans="2:12" ht="72" x14ac:dyDescent="0.2">
-      <c r="B6" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="L6" s="8" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="7" spans="2:12" ht="17" x14ac:dyDescent="0.2">
-      <c r="B7" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="3">
-        <v>8</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G7" s="3">
-        <v>13</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="K7" s="3">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>